--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4924012158054711</v>
+        <v>0.486322188449848</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0966765290391662</v>
+        <v>0.09910125144288313</v>
       </c>
       <c r="J2" t="n">
-        <v>1284.390171920998</v>
+        <v>1327.682126251183</v>
       </c>
       <c r="K2" t="n">
-        <v>2257142.593759404</v>
+        <v>2506278.723655512</v>
       </c>
       <c r="L2" t="n">
-        <v>1502.378978074242</v>
+        <v>1583.123091757401</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5756077725509591</v>
+        <v>0.5287647253296752</v>
       </c>
     </row>
   </sheetData>
